--- a/Analysis of OPCodes.xlsx
+++ b/Analysis of OPCodes.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbell5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbell5\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>OPCODE</t>
   </si>
@@ -65,10 +66,241 @@
     <t>Read out&lt;= mem[direct]</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>RF[r2]&lt;=mem[RF[r1]]</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>PCinc_ctrl &lt;= '0';</t>
+  </si>
+  <si>
+    <t>IRld_ctrl &lt;= '1'; -- Fetch Instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mre_ctrl &lt;= '1';  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFwe_ctrl &lt;= '0'; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFr1e_ctrl &lt;= '0'; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFr2e_ctrl &lt;= '0'; </t>
+  </si>
+  <si>
+    <t>Ms_ctrl &lt;= "10";</t>
+  </si>
+  <si>
+    <t>Mwe_ctrl &lt;= '0';</t>
+  </si>
+  <si>
+    <t>jmpen_ctrl &lt;= '0';</t>
+  </si>
+  <si>
+    <t>oe_ctrl &lt;= '0';</t>
+  </si>
+  <si>
+    <t>S1a</t>
+  </si>
+  <si>
+    <t>state &lt;= S1b;</t>
+  </si>
+  <si>
+    <t>S1b</t>
+  </si>
+  <si>
+    <t>Mre_ctrl &lt;= '0';</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>RFr1a_ctrl &lt;= IR_word(11 downto 8);</t>
+  </si>
+  <si>
+    <t>RFr1e_ctrl &lt;= '1'; -- mem[direct] &lt;= RF[rn]</t>
+  </si>
+  <si>
+    <t>Ms_ctrl &lt;= "01";</t>
+  </si>
+  <si>
+    <t>ALUs_ctrl &lt;= "00";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>S4a</t>
+  </si>
+  <si>
+    <t>Mwe_ctrl &lt;= '1';</t>
+  </si>
+  <si>
+    <t>S4b</t>
+  </si>
+  <si>
+    <t>PCinc_ctrl &lt;= '1';</t>
+  </si>
+  <si>
+    <t>IRld_ctrl &lt;= '0';</t>
+  </si>
+  <si>
+    <t>state &lt;= S2;</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s5a</t>
+  </si>
+  <si>
+    <t>s5b</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s6a</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s7a</t>
+  </si>
+  <si>
+    <t>s7b</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s8a</t>
+  </si>
+  <si>
+    <t>s8b</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>s9a</t>
+  </si>
+  <si>
+    <t>s9b</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s11a</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s12a</t>
+  </si>
+  <si>
+    <t>RFr1e_ctrl &lt;= '1'; -- mem[RF[rn]] &lt;= RF[rm]</t>
+  </si>
+  <si>
+    <t>Ms_ctrl &lt;= "00";</t>
+  </si>
+  <si>
+    <t>ALUs_ctrl &lt;= "01";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFr2a_ctrl &lt;= IR_word(7 downto 4); </t>
+  </si>
+  <si>
+    <t>RFr2e_ctrl &lt;= '1'; -- set addr.&amp; data</t>
+  </si>
+  <si>
+    <t>Mwe_ctrl &lt;= '1'; -- write into memory</t>
+  </si>
+  <si>
+    <t>Ms_ctrl &lt;= "10";-- return</t>
+  </si>
+  <si>
+    <t>RFwa_ctrl &lt;= IR_word(11 downto 8);</t>
+  </si>
+  <si>
+    <t>RFwe_ctrl &lt;= '1'; -- RF[rn] &lt;= imm.</t>
+  </si>
+  <si>
+    <t>RFs_ctrl &lt;= "10";</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>RFr1e_ctrl &lt;= '0';</t>
+  </si>
+  <si>
+    <t>RFr2e_ctrl &lt;= '0';</t>
+  </si>
+  <si>
+    <t>RFs_ctrl &lt;= "00";</t>
+  </si>
+  <si>
+    <t>RFwe_ctrl &lt;= '1';</t>
+  </si>
+  <si>
+    <t>RFr1e_ctrl &lt;= '1'; -- RF[rn] &lt;= RF[rn] - RF[rm]</t>
+  </si>
+  <si>
+    <t>RFr2a_ctrl &lt;= IR_word(7 downto 4);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFr2e_ctrl &lt;= '1';  </t>
+  </si>
+  <si>
+    <t>ALUs_ctrl &lt;= "11";</t>
+  </si>
+  <si>
+    <t>jmpen_ctrl &lt;= '1';</t>
+  </si>
+  <si>
+    <t>RFr1e_ctrl &lt;= '1'; -- jz if R[rn] = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ms_ctrl &lt;= "01";</t>
+  </si>
+  <si>
+    <t>Mre_ctrl &lt;= '1'; -- read memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_ctrl &lt;= '1'; </t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>RFr1a_ctrl&lt;= IR_word(7 downto 4);</t>
+  </si>
+  <si>
+    <t>RFr1e_ctrl &lt;= '1';</t>
+  </si>
+  <si>
+    <t>RFr1e_ctrl &lt;='0';</t>
+  </si>
+  <si>
+    <t>Mwe_ctrl &lt;='0';</t>
+  </si>
+  <si>
+    <t>RFs_ctrl &lt;= "01";</t>
+  </si>
+  <si>
+    <t>s12b</t>
   </si>
 </sst>
 </file>
@@ -92,12 +324,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -204,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -221,6 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,82 +475,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6010275" y="1095375"/>
-          <a:ext cx="1638300" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>The subtraction</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> is complicated</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
@@ -639,13 +802,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G11" si="0">D5+E5+F5</f>
@@ -660,13 +823,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="3">
         <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
@@ -681,17 +844,17 @@
         <v>4</v>
       </c>
       <c r="D7" s="15">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -702,17 +865,17 @@
         <v>5</v>
       </c>
       <c r="D8" s="15">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -722,12 +885,18 @@
       <c r="C9" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="15">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -738,13 +907,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="3">
         <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
@@ -753,28 +922,413 @@
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8">
         <v>8</v>
       </c>
       <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
       </c>
       <c r="F11" s="5">
         <v>3</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AM24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="13" max="13" width="38.28515625" customWidth="1"/>
+    <col min="14" max="14" width="35" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" customWidth="1"/>
+    <col min="20" max="20" width="32.140625" customWidth="1"/>
+    <col min="24" max="24" width="38.5703125" customWidth="1"/>
+    <col min="25" max="25" width="32.7109375" customWidth="1"/>
+    <col min="28" max="28" width="33.28515625" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" customWidth="1"/>
+    <col min="32" max="32" width="27.85546875" customWidth="1"/>
+    <col min="34" max="34" width="21.42578125" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" customWidth="1"/>
+    <col min="37" max="37" width="31.7109375" customWidth="1"/>
+    <col min="38" max="38" width="17.28515625" customWidth="1"/>
+    <col min="39" max="39" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E3:E6">
+    <sortCondition ref="E3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>